--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9357ead23f83527e/Time Series/Final Paper/TS_Final_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{93F05FE6-3DAD-4F38-B57F-161A7F39C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{004B3261-DC84-4BD2-A8B4-00DDA4AA8EC8}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{93F05FE6-3DAD-4F38-B57F-161A7F39C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{606FE385-1CAC-4695-845E-4DD91D86D1A2}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6D808E4-9869-439E-943A-D6364ED43BBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A6D808E4-9869-439E-943A-D6364ED43BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>1.08.2022</t>
+  </si>
+  <si>
+    <t>Coal deliveries</t>
   </si>
 </sst>
 </file>
@@ -611,19 +614,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F19BC27-C0D4-4A15-8630-EF4A0ADB3A2B}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,10 +634,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -642,10 +648,13 @@
         <v>20882.131000000001</v>
       </c>
       <c r="C2">
+        <v>61808.205999999991</v>
+      </c>
+      <c r="D2">
         <v>5.36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -653,10 +662,13 @@
         <v>19290.414000000001</v>
       </c>
       <c r="C3">
+        <v>56958.613000000005</v>
+      </c>
+      <c r="D3">
         <v>5.24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -664,10 +676,13 @@
         <v>17701.14</v>
       </c>
       <c r="C4">
+        <v>54566.87</v>
+      </c>
+      <c r="D4">
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -675,10 +690,13 @@
         <v>16531.27</v>
       </c>
       <c r="C5">
+        <v>50121.485000000001</v>
+      </c>
+      <c r="D5">
         <v>4.57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -686,10 +704,13 @@
         <v>17959.841</v>
       </c>
       <c r="C6">
+        <v>53400.906999999999</v>
+      </c>
+      <c r="D6">
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -697,10 +718,13 @@
         <v>17503.509999999998</v>
       </c>
       <c r="C7">
+        <v>50678.497000000003</v>
+      </c>
+      <c r="D7">
         <v>5.03</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -708,10 +732,13 @@
         <v>17015.715</v>
       </c>
       <c r="C8">
+        <v>51825.486000000004</v>
+      </c>
+      <c r="D8">
         <v>5.23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -719,10 +746,13 @@
         <v>17699.364000000001</v>
       </c>
       <c r="C9">
+        <v>54024.486000000004</v>
+      </c>
+      <c r="D9">
         <v>5.94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -730,10 +760,13 @@
         <v>18041.298999999999</v>
       </c>
       <c r="C10">
+        <v>53638.541999999994</v>
+      </c>
+      <c r="D10">
         <v>7.07</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -741,10 +774,13 @@
         <v>19297.96</v>
       </c>
       <c r="C11">
+        <v>56782.928</v>
+      </c>
+      <c r="D11">
         <v>7.37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -752,10 +788,13 @@
         <v>20245.769</v>
       </c>
       <c r="C12">
+        <v>58690.566999999988</v>
+      </c>
+      <c r="D12">
         <v>7.53</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -763,10 +802,13 @@
         <v>19560.637999999999</v>
       </c>
       <c r="C13">
+        <v>56341.066000000006</v>
+      </c>
+      <c r="D13">
         <v>8.18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -774,10 +816,13 @@
         <v>18357.732</v>
       </c>
       <c r="C14">
+        <v>57116.369000000006</v>
+      </c>
+      <c r="D14">
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -785,10 +830,13 @@
         <v>18076.806</v>
       </c>
       <c r="C15">
+        <v>54338.052999999993</v>
+      </c>
+      <c r="D15">
         <v>10.1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -796,10 +844,13 @@
         <v>18575.685000000001</v>
       </c>
       <c r="C16">
+        <v>55797.242000000006</v>
+      </c>
+      <c r="D16">
         <v>13.28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -807,10 +858,13 @@
         <v>16393.436000000002</v>
       </c>
       <c r="C17">
+        <v>47519.104999999996</v>
+      </c>
+      <c r="D17">
         <v>13.59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -818,10 +872,13 @@
         <v>16704.993999999999</v>
       </c>
       <c r="C18">
+        <v>49157.067999999999</v>
+      </c>
+      <c r="D18">
         <v>14.91</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -829,10 +886,13 @@
         <v>16302.016</v>
       </c>
       <c r="C19">
+        <v>50201.849000000002</v>
+      </c>
+      <c r="D19">
         <v>14.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -840,10 +900,13 @@
         <v>18134.226999999999</v>
       </c>
       <c r="C20">
+        <v>54257.862999999998</v>
+      </c>
+      <c r="D20">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -851,10 +914,13 @@
         <v>17943.607</v>
       </c>
       <c r="C21">
+        <v>53944.38</v>
+      </c>
+      <c r="D21">
         <v>21.09</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -862,10 +928,13 @@
         <v>17557.429</v>
       </c>
       <c r="C22">
+        <v>52048.689999999995</v>
+      </c>
+      <c r="D22">
         <v>21.21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -873,10 +942,13 @@
         <v>19517.285</v>
       </c>
       <c r="C23">
+        <v>55152.21</v>
+      </c>
+      <c r="D23">
         <v>16.36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -884,10 +956,13 @@
         <v>18354.781999999999</v>
       </c>
       <c r="C24">
+        <v>55023.07499999999</v>
+      </c>
+      <c r="D24">
         <v>20.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -895,10 +970,13 @@
         <v>18286.309000000001</v>
       </c>
       <c r="C25">
+        <v>54667.264999999999</v>
+      </c>
+      <c r="D25">
         <v>25.01</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -906,10 +984,13 @@
         <v>19767.333999999999</v>
       </c>
       <c r="C26">
+        <v>57407.262999999992</v>
+      </c>
+      <c r="D26">
         <v>22.3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -917,10 +998,13 @@
         <v>16966.062000000002</v>
       </c>
       <c r="C27">
+        <v>49963.068000000007</v>
+      </c>
+      <c r="D27">
         <v>21.69</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -928,10 +1012,13 @@
         <v>15999.574000000001</v>
       </c>
       <c r="C28">
+        <v>47302.942000000003</v>
+      </c>
+      <c r="D28">
         <v>21.54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -939,10 +1026,13 @@
         <v>14093.608</v>
       </c>
       <c r="C29">
+        <v>44701.311999999998</v>
+      </c>
+      <c r="D29">
         <v>26.29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -950,10 +1040,13 @@
         <v>12888.438</v>
       </c>
       <c r="C30">
+        <v>42182.465999999993</v>
+      </c>
+      <c r="D30">
         <v>24.26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -961,10 +1054,13 @@
         <v>12606.468999999999</v>
       </c>
       <c r="C31">
+        <v>38154.57</v>
+      </c>
+      <c r="D31">
         <v>26.28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -972,10 +1068,13 @@
         <v>13635.074000000001</v>
       </c>
       <c r="C32">
+        <v>41444.183000000005</v>
+      </c>
+      <c r="D32">
         <v>27.98</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -983,10 +1082,13 @@
         <v>12683.29</v>
       </c>
       <c r="C33">
+        <v>40441.537000000004</v>
+      </c>
+      <c r="D33">
         <v>26.32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -994,10 +1096,13 @@
         <v>13992.703</v>
       </c>
       <c r="C34">
+        <v>41573.669000000009</v>
+      </c>
+      <c r="D34">
         <v>27.42</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1005,10 +1110,13 @@
         <v>14760.380999999999</v>
       </c>
       <c r="C35">
+        <v>44340.917000000001</v>
+      </c>
+      <c r="D35">
         <v>25.61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1016,10 +1124,13 @@
         <v>14264.893</v>
       </c>
       <c r="C36">
+        <v>45373.493999999999</v>
+      </c>
+      <c r="D36">
         <v>25.22</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1027,10 +1138,13 @@
         <v>13875.181</v>
       </c>
       <c r="C37">
+        <v>43156.912000000004</v>
+      </c>
+      <c r="D37">
         <v>24.64</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1038,10 +1152,13 @@
         <v>13954.654</v>
       </c>
       <c r="C38">
+        <v>43767.042999999998</v>
+      </c>
+      <c r="D38">
         <v>23.88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1049,10 +1166,13 @@
         <v>11899.356</v>
       </c>
       <c r="C39">
+        <v>36065.30799999999</v>
+      </c>
+      <c r="D39">
         <v>23.61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1060,10 +1180,13 @@
         <v>12433.084000000001</v>
       </c>
       <c r="C40">
+        <v>36469.235000000008</v>
+      </c>
+      <c r="D40">
         <v>17.68</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1071,10 +1194,13 @@
         <v>9665.4419999999991</v>
       </c>
       <c r="C41">
+        <v>28496.424999999999</v>
+      </c>
+      <c r="D41">
         <v>19.57</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -1082,10 +1208,13 @@
         <v>9462.1640000000007</v>
       </c>
       <c r="C42">
+        <v>27635.425999999999</v>
+      </c>
+      <c r="D42">
         <v>21.4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1093,10 +1222,13 @@
         <v>9614.3490000000002</v>
       </c>
       <c r="C43">
+        <v>29336.955000000002</v>
+      </c>
+      <c r="D43">
         <v>26.97</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -1104,10 +1236,13 @@
         <v>10280.989</v>
       </c>
       <c r="C44">
+        <v>31131.174999999999</v>
+      </c>
+      <c r="D44">
         <v>26.28</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1115,10 +1250,13 @@
         <v>10342.178</v>
       </c>
       <c r="C45">
+        <v>34642.91399999999</v>
+      </c>
+      <c r="D45">
         <v>28.66</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -1126,10 +1264,13 @@
         <v>11066.066999999999</v>
       </c>
       <c r="C46">
+        <v>35187.904999999999</v>
+      </c>
+      <c r="D46">
         <v>26.93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -1137,10 +1278,13 @@
         <v>14003.839</v>
       </c>
       <c r="C47">
+        <v>41311.598999999995</v>
+      </c>
+      <c r="D47">
         <v>23.71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -1148,10 +1292,13 @@
         <v>12763.593999999999</v>
       </c>
       <c r="C48">
+        <v>40875.529000000002</v>
+      </c>
+      <c r="D48">
         <v>29.14</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1159,10 +1306,13 @@
         <v>14693.596</v>
       </c>
       <c r="C49">
+        <v>43030.919000000009</v>
+      </c>
+      <c r="D49">
         <v>32.72</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1170,10 +1320,13 @@
         <v>13941.352999999999</v>
       </c>
       <c r="C50">
+        <v>44404.611999999994</v>
+      </c>
+      <c r="D50">
         <v>32.950000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1181,10 +1334,13 @@
         <v>12687.177</v>
       </c>
       <c r="C51">
+        <v>38649.552000000003</v>
+      </c>
+      <c r="D51">
         <v>37.28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -1192,10 +1348,13 @@
         <v>14087.278</v>
       </c>
       <c r="C52">
+        <v>40589.820000000007</v>
+      </c>
+      <c r="D52">
         <v>42.55</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -1203,10 +1362,13 @@
         <v>11987.200999999999</v>
       </c>
       <c r="C53">
+        <v>36492.027000000002</v>
+      </c>
+      <c r="D53">
         <v>48.84</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -1214,10 +1376,13 @@
         <v>11663.043</v>
       </c>
       <c r="C54">
+        <v>33847.466</v>
+      </c>
+      <c r="D54">
         <v>51.7</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -1225,10 +1390,13 @@
         <v>12171.062</v>
       </c>
       <c r="C55">
+        <v>35824.894</v>
+      </c>
+      <c r="D55">
         <v>56.37</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -1236,10 +1404,13 @@
         <v>12850.145</v>
       </c>
       <c r="C56">
+        <v>38235.938999999998</v>
+      </c>
+      <c r="D56">
         <v>53.33</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1247,10 +1418,13 @@
         <v>12609.356</v>
       </c>
       <c r="C57">
+        <v>39511.231999999996</v>
+      </c>
+      <c r="D57">
         <v>60.76</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -1258,10 +1432,13 @@
         <v>14507.236999999999</v>
       </c>
       <c r="C58">
+        <v>42677.196000000004</v>
+      </c>
+      <c r="D58">
         <v>61.74</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -1269,10 +1446,13 @@
         <v>13637.905000000001</v>
       </c>
       <c r="C59">
+        <v>43104.464999999997</v>
+      </c>
+      <c r="D59">
         <v>58.71</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -1280,10 +1460,13 @@
         <v>14410.231</v>
       </c>
       <c r="C60">
+        <v>44510.720999999998</v>
+      </c>
+      <c r="D60">
         <v>75.37</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -1291,10 +1474,13 @@
         <v>16132.049000000001</v>
       </c>
       <c r="C61">
+        <v>49681.286</v>
+      </c>
+      <c r="D61">
         <v>80.650000000000006</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -1302,10 +1488,13 @@
         <v>14745.411</v>
       </c>
       <c r="C62">
+        <v>46558.067999999999</v>
+      </c>
+      <c r="D62">
         <v>89.24</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -1313,10 +1502,13 @@
         <v>13772.905000000001</v>
       </c>
       <c r="C63">
+        <v>39735.78</v>
+      </c>
+      <c r="D63">
         <v>82.21</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -1324,10 +1516,13 @@
         <v>14912.895</v>
       </c>
       <c r="C64">
+        <v>47129.528000000006</v>
+      </c>
+      <c r="D64">
         <v>76.48</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -1335,10 +1530,13 @@
         <v>13496.612999999999</v>
       </c>
       <c r="C65">
+        <v>40286.002</v>
+      </c>
+      <c r="D65">
         <v>84.45</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -1346,10 +1544,13 @@
         <v>12137.473</v>
       </c>
       <c r="C66">
+        <v>39240.269</v>
+      </c>
+      <c r="D66">
         <v>84.02</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -1357,10 +1558,13 @@
         <v>12844.868</v>
       </c>
       <c r="C67">
+        <v>40339.166000000005</v>
+      </c>
+      <c r="D67">
         <v>90.16</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -1368,10 +1572,13 @@
         <v>12624.416999999999</v>
       </c>
       <c r="C68">
+        <v>41046.700000000004</v>
+      </c>
+      <c r="D68">
         <v>78.55</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -1379,6 +1586,9 @@
         <v>11919.019</v>
       </c>
       <c r="C69">
+        <v>40402.527000000002</v>
+      </c>
+      <c r="D69">
         <v>80.03</v>
       </c>
     </row>
